--- a/tables.xlsx
+++ b/tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>Номер_замовлення</t>
   </si>
@@ -110,7 +110,13 @@
     <t>Таблиця «Клієнти»</t>
   </si>
   <si>
-    <t>Клієнт (ключ)</t>
+    <t>Таблиця «Товари в наявності»</t>
+  </si>
+  <si>
+    <t>ID клієнта (ключ)</t>
+  </si>
+  <si>
+    <t>ID товару (ключ)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,11 +211,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +245,9 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,8 +256,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,17 +773,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -879,10 +899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,26 +914,28 @@
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="11"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -927,19 +949,22 @@
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -958,14 +983,17 @@
       <c r="G3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -984,14 +1012,17 @@
       <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -1010,14 +1041,17 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>103</v>
       </c>
@@ -1028,12 +1062,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Номер_замовлення</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>ID товару (ключ)</t>
+  </si>
+  <si>
+    <t>Наявна_кількість</t>
+  </si>
+  <si>
+    <t>ID клієнта</t>
+  </si>
+  <si>
+    <t>ID товару</t>
   </si>
 </sst>
 </file>
@@ -253,10 +262,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -902,7 +911,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,11 +920,11 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,15 +941,15 @@
       <c r="I1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -949,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -968,8 +977,8 @@
       <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -977,8 +986,8 @@
       <c r="E3" s="2">
         <v>101</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
+      <c r="F3" s="5">
+        <v>1</v>
       </c>
       <c r="G3" s="5">
         <v>3</v>
@@ -997,8 +1006,8 @@
       <c r="A4" s="2">
         <v>102</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="2">
+        <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
@@ -1006,8 +1015,8 @@
       <c r="E4" s="2">
         <v>101</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
+      <c r="F4" s="5">
+        <v>2</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -1026,8 +1035,8 @@
       <c r="A5" s="2">
         <v>103</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="2">
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
@@ -1035,8 +1044,8 @@
       <c r="E5" s="2">
         <v>102</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
+      <c r="F5" s="5">
+        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1055,8 +1064,8 @@
       <c r="E6" s="2">
         <v>103</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
+      <c r="F6" s="5">
+        <v>2</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
@@ -1067,8 +1076,8 @@
       <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="s">
@@ -1077,8 +1086,8 @@
       <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>2</v>
+      <c r="K9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
